--- a/ProjectDocs/Työajan seuranta.xlsx
+++ b/ProjectDocs/Työajan seuranta.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29721"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29816"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioulu-my.sharepoint.com/personal/jukkanev_oamk_fi/Documents/Opintojaksot/Kevät 2026/Mobiilikehitysprojekti IN00ED17/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{624A0B13-AB2B-4331-8D73-424105B16379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A92183D-A815-45FC-8569-02A6DF6789E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-10680" yWindow="-19680" windowWidth="38700" windowHeight="15285" xr2:uid="{B7036960-D674-4B76-B564-D076AACD5E6B}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
   <si>
     <t>Ryhmä:</t>
   </si>
@@ -125,6 +125,21 @@
   </si>
   <si>
     <t>Palaveri/LTS/KRP laskelmointi/Markkinoinnin budjetointi/ympäristön korjaamista</t>
+  </si>
+  <si>
+    <t>Palaveri/Projektin viimeistelyä/videoiden suunnittelua</t>
+  </si>
+  <si>
+    <t>Projektin viimeistelyä</t>
+  </si>
+  <si>
+    <t>Esityksen tekoa/Projektin viimeistelyä</t>
+  </si>
+  <si>
+    <t>Sovelluksen julkaisemista/Projektin viimeistelyä</t>
+  </si>
+  <si>
+    <t>Yht</t>
   </si>
   <si>
     <t>Antti Ahkera</t>
@@ -499,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BD4D073-EB2D-44A2-86BF-660E3721AF80}">
-  <dimension ref="A1:C100"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -715,7 +730,7 @@
         <v>20</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -808,38 +823,66 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2">
-        <v>46058</v>
+        <v>46069</v>
+      </c>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2">
-        <v>46062</v>
+        <v>46070</v>
+      </c>
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2">
-        <v>46051</v>
+        <v>46071</v>
+      </c>
+      <c r="B30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30">
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2">
-        <v>46054</v>
+        <v>46072</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2">
-        <v>46056</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="2">
-        <v>46057</v>
-      </c>
-    </row>
-    <row r="100" spans="3:3">
-      <c r="C100">
-        <f>SUM(C3:C99)</f>
-        <v>116</v>
+        <v>46073</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33">
+        <f>SUM(C3:C32)</f>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -878,7 +921,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -886,7 +929,7 @@
         <v>45209</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -897,7 +940,7 @@
         <v>45210</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C4">
         <v>1.5</v>
@@ -942,7 +985,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -950,7 +993,7 @@
         <v>45211</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C3">
         <v>3.5</v>
@@ -961,7 +1004,7 @@
         <v>45213</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C4">
         <v>4.5</v>

--- a/ProjectDocs/Työajan seuranta.xlsx
+++ b/ProjectDocs/Työajan seuranta.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29816"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioulu-my.sharepoint.com/personal/jukkanev_oamk_fi/Documents/Opintojaksot/Kevät 2026/Mobiilikehitysprojekti IN00ED17/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bananar00t\Documents\GitHub\Documents\ProjectDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A92183D-A815-45FC-8569-02A6DF6789E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D674E83-1B1A-4D88-986C-B6004EAFC31C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10680" yWindow="-19680" windowWidth="38700" windowHeight="15285" xr2:uid="{B7036960-D674-4B76-B564-D076AACD5E6B}"/>
+    <workbookView xWindow="38290" yWindow="-40" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{B7036960-D674-4B76-B564-D076AACD5E6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Samu Lyhty" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="53">
   <si>
     <t>Ryhmä:</t>
   </si>
@@ -142,19 +142,61 @@
     <t>Yht</t>
   </si>
   <si>
-    <t>Antti Ahkera</t>
-  </si>
-  <si>
-    <t>Käyttöliitymän suunnittelu</t>
-  </si>
-  <si>
-    <t>Arvosanan luku käyttöliittymän teko</t>
-  </si>
-  <si>
     <t>Teppo Terävä</t>
   </si>
   <si>
     <t>Tulostusrutiinin teko</t>
+  </si>
+  <si>
+    <t>Martin Negin</t>
+  </si>
+  <si>
+    <t>Projektin alustus ja Github Organisaation perustaminen</t>
+  </si>
+  <si>
+    <t>Repositoryen perustaminen Github Organisaatioon ja sääntöjen määrittäminen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rajapintojen etsimistä/työkalujen etsimistä/palaveri/tietokannan suunnittelua, Scrum dokumentin sisäistys ja out scouppaus sellaisenaan </t>
+  </si>
+  <si>
+    <t>Backendin alustusta ja rakenteen määrittäminen</t>
+  </si>
+  <si>
+    <t>VM palvelimen asennus ja määrittäminen Hetznert Cloud ympäristössä, sekä CI/CD putken pystyttäminen, sekä käyttöoikeuksien määrittäminen</t>
+  </si>
+  <si>
+    <t>Linux koulutusta tiimiläisille /palaveri/LTS kehitystä, käyttäjätarinat</t>
+  </si>
+  <si>
+    <t>Frontendin ja Backendin kartta toiminnallisuuksien koodausta/scrum review/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kartta toiminnallisuuksien bugi korjauksia ja virheiden selvittelyä </t>
+  </si>
+  <si>
+    <t>Kartta toiminnallisuuksien bugi korjauksia ja virheiden selvittelyä ja käytännön testaus.</t>
+  </si>
+  <si>
+    <t>Testaamista/Palaveri/ Tiimiläisten tukeminen ja LTS:n tekoa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lemmikin jakamisen discovery/Palaveri </t>
+  </si>
+  <si>
+    <t>Sovellujksen MaterialDecing3 tyylirakenteen rakentaminen ja määrittäminen</t>
+  </si>
+  <si>
+    <t>Sovellujksen MaterialDecing3 tyylirakenteen korjauksia ja täydennyksiä</t>
+  </si>
+  <si>
+    <t>Backendin sub.domain osoitteen linkitys API-rajapintaa varten ja frontin API-linkin muutokset</t>
+  </si>
+  <si>
+    <t>Advance mobile osion selvitykset, Appstore ja Play Storen vaatimuksien selvittely</t>
+  </si>
+  <si>
+    <t>Sovelluksen Expo-maps kirjaston korvaaminen OpenStreetMaps-kirjastolla ja bugien korjausta</t>
   </si>
 </sst>
 </file>
@@ -164,7 +206,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,7 +244,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normaali" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -218,9 +260,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022 -teema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -258,7 +300,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -364,7 +406,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -506,7 +548,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -516,18 +558,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BD4D073-EB2D-44A2-86BF-660E3721AF80}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" customWidth="1"/>
-    <col min="3" max="6" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.7265625" customWidth="1"/>
+    <col min="2" max="2" width="31.453125" customWidth="1"/>
+    <col min="3" max="6" width="13.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -535,7 +577,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -546,7 +588,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>46027</v>
       </c>
@@ -557,7 +599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>46028</v>
       </c>
@@ -568,7 +610,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>46030</v>
       </c>
@@ -579,7 +621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>46031</v>
       </c>
@@ -590,7 +632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>46033</v>
       </c>
@@ -601,7 +643,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>46035</v>
       </c>
@@ -612,7 +654,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>46037</v>
       </c>
@@ -623,7 +665,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>46039</v>
       </c>
@@ -634,7 +676,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>46040</v>
       </c>
@@ -645,7 +687,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>46042</v>
       </c>
@@ -656,7 +698,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>46044</v>
       </c>
@@ -667,7 +709,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>46047</v>
       </c>
@@ -678,7 +720,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>46048</v>
       </c>
@@ -689,7 +731,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>46049</v>
       </c>
@@ -700,7 +742,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>46050</v>
       </c>
@@ -711,7 +753,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>46051</v>
       </c>
@@ -722,7 +764,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>46054</v>
       </c>
@@ -733,7 +775,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>46056</v>
       </c>
@@ -744,7 +786,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>46057</v>
       </c>
@@ -755,7 +797,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>46058</v>
       </c>
@@ -766,7 +808,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>46062</v>
       </c>
@@ -777,7 +819,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>46063</v>
       </c>
@@ -788,7 +830,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>46064</v>
       </c>
@@ -799,7 +841,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>46065</v>
       </c>
@@ -810,7 +852,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>46068</v>
       </c>
@@ -821,7 +863,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>46069</v>
       </c>
@@ -832,7 +874,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>46070</v>
       </c>
@@ -843,7 +885,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>46071</v>
       </c>
@@ -854,7 +896,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>46072</v>
       </c>
@@ -865,7 +907,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>46073</v>
       </c>
@@ -876,7 +918,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>33</v>
       </c>
@@ -892,28 +934,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C1EECD9-4AD3-41AF-8923-B28678799497}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" customWidth="1"/>
+    <col min="2" max="2" width="94.26953125" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -921,33 +963,336 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>45209</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>46027</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>46028</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>46030</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>46031</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>46033</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>46034</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>46035</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>46037</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>46039</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>46040</v>
+      </c>
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>46043</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <v>46045</v>
+      </c>
+      <c r="B14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
+        <v>46047</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
+        <v>46048</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
+        <v>46049</v>
+      </c>
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
+        <v>46050</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="2">
+        <v>46051</v>
+      </c>
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
+        <v>46054</v>
+      </c>
+      <c r="B20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="2">
+        <v>46056</v>
+      </c>
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="2">
+        <v>46061</v>
+      </c>
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="2">
+        <v>46062</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="2">
+        <v>46064</v>
+      </c>
+      <c r="B24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="2">
+        <v>46065</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>45210</v>
-      </c>
-      <c r="B4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1"/>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="2">
+        <v>46068</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="2">
+        <v>46069</v>
+      </c>
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="2">
+        <v>46070</v>
+      </c>
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="2">
+        <v>46071</v>
+      </c>
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="2">
+        <v>46072</v>
+      </c>
+      <c r="B30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="2">
+        <v>46073</v>
+      </c>
+      <c r="B31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32">
+        <f>SUM(C3:C31)</f>
+        <v>142.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -962,14 +1307,14 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.7265625" customWidth="1"/>
+    <col min="2" max="2" width="30.7265625" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -977,7 +1322,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -985,26 +1330,26 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>45211</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>3.5</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>45213</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>4.5</v>

--- a/ProjectDocs/Työajan seuranta.xlsx
+++ b/ProjectDocs/Työajan seuranta.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bananar00t\Documents\GitHub\Documents\ProjectDocs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Elin Tikkanen\Documents\IT Engineering studies\Mobiilikehitysprojekti\Dokumentit\Documents\ProjectDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D674E83-1B1A-4D88-986C-B6004EAFC31C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40822804-99D2-4DED-B7D2-BE6E7F67A43E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38290" yWindow="-40" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{B7036960-D674-4B76-B564-D076AACD5E6B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{B7036960-D674-4B76-B564-D076AACD5E6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Samu Lyhty" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="65">
   <si>
     <t>Ryhmä:</t>
   </si>
@@ -142,12 +142,6 @@
     <t>Yht</t>
   </si>
   <si>
-    <t>Teppo Terävä</t>
-  </si>
-  <si>
-    <t>Tulostusrutiinin teko</t>
-  </si>
-  <si>
     <t>Martin Negin</t>
   </si>
   <si>
@@ -197,6 +191,48 @@
   </si>
   <si>
     <t>Sovelluksen Expo-maps kirjaston korvaaminen OpenStreetMaps-kirjastolla ja bugien korjausta</t>
+  </si>
+  <si>
+    <t>Elin Tikkanen</t>
+  </si>
+  <si>
+    <t>Aloituspalaveri</t>
+  </si>
+  <si>
+    <t>Palaveri</t>
+  </si>
+  <si>
+    <t>Aikataulun ja tavoitteiden kirjaamista</t>
+  </si>
+  <si>
+    <t>UI suunnittelua</t>
+  </si>
+  <si>
+    <t>Suunnittelua</t>
+  </si>
+  <si>
+    <t>Palaveri ja Scrum review</t>
+  </si>
+  <si>
+    <t>Palaverimuistiot</t>
+  </si>
+  <si>
+    <t>Palaverimuistio</t>
+  </si>
+  <si>
+    <t>Koodausta</t>
+  </si>
+  <si>
+    <t>Palaveri, koodailua, yhdessä puuhaamista</t>
+  </si>
+  <si>
+    <t>Dokumentteja</t>
+  </si>
+  <si>
+    <t>Palaveri, koodausta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOX! Koodaus sisältää usein myös wireframen/UI-suunnittelun, dokumenttien päivittämistä/ylläpitoa, esitysten tekoa ym. Jäänyt vaan kirjaamatta tarkemmin. </t>
   </si>
 </sst>
 </file>
@@ -244,7 +280,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normaali" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -260,7 +296,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022 -teema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -559,17 +595,17 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C33"/>
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" customWidth="1"/>
-    <col min="2" max="2" width="31.453125" customWidth="1"/>
-    <col min="3" max="6" width="13.26953125" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" customWidth="1"/>
+    <col min="3" max="6" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -577,7 +613,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -588,7 +624,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>46027</v>
       </c>
@@ -599,7 +635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>46028</v>
       </c>
@@ -610,7 +646,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>46030</v>
       </c>
@@ -621,7 +657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>46031</v>
       </c>
@@ -632,7 +668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>46033</v>
       </c>
@@ -643,7 +679,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>46035</v>
       </c>
@@ -654,7 +690,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>46037</v>
       </c>
@@ -665,7 +701,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>46039</v>
       </c>
@@ -676,7 +712,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>46040</v>
       </c>
@@ -687,7 +723,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>46042</v>
       </c>
@@ -698,7 +734,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>46044</v>
       </c>
@@ -709,7 +745,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>46047</v>
       </c>
@@ -720,7 +756,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>46048</v>
       </c>
@@ -731,7 +767,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>46049</v>
       </c>
@@ -742,7 +778,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>46050</v>
       </c>
@@ -753,7 +789,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>46051</v>
       </c>
@@ -764,7 +800,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>46054</v>
       </c>
@@ -775,7 +811,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>46056</v>
       </c>
@@ -786,7 +822,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>46057</v>
       </c>
@@ -797,7 +833,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>46058</v>
       </c>
@@ -808,7 +844,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>46062</v>
       </c>
@@ -819,7 +855,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>46063</v>
       </c>
@@ -830,7 +866,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>46064</v>
       </c>
@@ -841,7 +877,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>46065</v>
       </c>
@@ -852,7 +888,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>46068</v>
       </c>
@@ -863,7 +899,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>46069</v>
       </c>
@@ -874,7 +910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>46070</v>
       </c>
@@ -885,7 +921,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>46071</v>
       </c>
@@ -896,7 +932,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>46072</v>
       </c>
@@ -907,7 +943,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>46073</v>
       </c>
@@ -918,7 +954,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>33</v>
       </c>
@@ -936,18 +972,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C1EECD9-4AD3-41AF-8923-B28678799497}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" customWidth="1"/>
-    <col min="2" max="2" width="94.26953125" customWidth="1"/>
-    <col min="3" max="3" width="11.26953125" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="94.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -955,7 +991,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -963,21 +999,21 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>46027</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>46028</v>
       </c>
@@ -988,29 +1024,29 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>46030</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>46031</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>46033</v>
       </c>
@@ -1021,29 +1057,29 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>46034</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C8">
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>46035</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C9">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>46037</v>
       </c>
@@ -1054,7 +1090,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>46039</v>
       </c>
@@ -1065,40 +1101,40 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>46040</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C12">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>46043</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C13">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>46045</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C14">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>46047</v>
       </c>
@@ -1109,84 +1145,84 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>46048</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C16">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>46049</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C17">
         <v>4.5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>46050</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C18">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>46051</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C19">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>46054</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C20">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>46056</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C21">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>46061</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C22">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>46062</v>
       </c>
@@ -1197,18 +1233,18 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>46064</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C24">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>46065</v>
       </c>
@@ -1219,7 +1255,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>46068</v>
       </c>
@@ -1230,7 +1266,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>46069</v>
       </c>
@@ -1241,7 +1277,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>46070</v>
       </c>
@@ -1252,7 +1288,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>46071</v>
       </c>
@@ -1263,7 +1299,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>46072</v>
       </c>
@@ -1274,7 +1310,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>46073</v>
       </c>
@@ -1285,7 +1321,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>33</v>
       </c>
@@ -1301,28 +1337,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74BC3D70-9A8B-4A59-8343-1D3356DFB267}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" customWidth="1"/>
-    <col min="2" max="2" width="30.7265625" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1330,29 +1366,494 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+      <c r="E2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45211</v>
+        <v>46028</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C3">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45213</v>
+        <v>46031</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="C4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>46031</v>
+      </c>
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>46033</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>46033</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>46034</v>
+      </c>
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>46034</v>
+      </c>
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>46035</v>
+      </c>
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>46035</v>
+      </c>
+      <c r="B11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>46035</v>
+      </c>
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>46037</v>
+      </c>
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>46037</v>
+      </c>
+      <c r="B14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>46039</v>
+      </c>
+      <c r="B15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>46040</v>
+      </c>
+      <c r="B16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>46040</v>
+      </c>
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>46041</v>
+      </c>
+      <c r="B18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>46048</v>
+      </c>
+      <c r="B20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>46051</v>
+      </c>
+      <c r="B21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>46051</v>
+      </c>
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>46052</v>
+      </c>
+      <c r="B23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>46053</v>
+      </c>
+      <c r="B24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>46054</v>
+      </c>
+      <c r="B25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>46054</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>46057</v>
+      </c>
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>46060</v>
+      </c>
+      <c r="B30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>46061</v>
+      </c>
+      <c r="B31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>46064</v>
+      </c>
+      <c r="B34" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>46065</v>
+      </c>
+      <c r="B35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>46068</v>
+      </c>
+      <c r="B36" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>46069</v>
+      </c>
+      <c r="B37" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>46069</v>
+      </c>
+      <c r="B38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>46070</v>
+      </c>
+      <c r="B39" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>46070</v>
+      </c>
+      <c r="B40" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>46070</v>
+      </c>
+      <c r="B41" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>46071</v>
+      </c>
+      <c r="B42" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>46071</v>
+      </c>
+      <c r="B43" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>46072</v>
+      </c>
+      <c r="B44" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>46072</v>
+      </c>
+      <c r="B45" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45">
         <v>4.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>46073</v>
+      </c>
+      <c r="B46" t="s">
+        <v>63</v>
+      </c>
+      <c r="C46">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/ProjectDocs/Työajan seuranta.xlsx
+++ b/ProjectDocs/Työajan seuranta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Elin Tikkanen\Documents\IT Engineering studies\Mobiilikehitysprojekti\Dokumentit\Documents\ProjectDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40822804-99D2-4DED-B7D2-BE6E7F67A43E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD33A39-6E94-429A-9881-6CDCCE3F9F58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{B7036960-D674-4B76-B564-D076AACD5E6B}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="65">
   <si>
     <t>Ryhmä:</t>
   </si>
@@ -595,7 +595,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1337,10 +1337,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74BC3D70-9A8B-4A59-8343-1D3356DFB267}">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1856,6 +1856,15 @@
         <v>4</v>
       </c>
     </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47">
+        <f>SUM(C3:C46)</f>
+        <v>104.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
